--- a/src/test/java/com/example/moneyAllocation/repository/data/temporary_setNull_expected.xlsx
+++ b/src/test/java/com/example/moneyAllocation/repository/data/temporary_setNull_expected.xlsx
@@ -8,22 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryotasato/local-dev/MoneyAllocation/allocation-api/src/test/java/com/example/moneyAllocation/repository/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DC043A6-F656-924A-973D-9EA8B97FEF39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{012128D4-EE49-2743-B41C-BFCF3C33E52A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20680" yWindow="0" windowWidth="17720" windowHeight="21600" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20680" yWindow="0" windowWidth="17720" windowHeight="21600" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="USER" sheetId="3" r:id="rId1"/>
     <sheet name="ACCOUNT" sheetId="2" r:id="rId2"/>
-    <sheet name="REGULAR_TRANSFER" sheetId="4" r:id="rId3"/>
-    <sheet name="TEMPORARY_TRANSFER" sheetId="5" r:id="rId4"/>
+    <sheet name="TRANSFER" sheetId="6" r:id="rId3"/>
+    <sheet name="REGULAR_TRANSFER" sheetId="4" r:id="rId4"/>
+    <sheet name="TEMPORARY_TRANSFER" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="42">
   <si>
     <t>三井</t>
   </si>
@@ -158,6 +159,26 @@
   </si>
   <si>
     <t>desc3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TRANSFER_ID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TITLE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2023/06</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2023/07</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2022/09</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -207,11 +228,14 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1542,6 +1566,66 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4432A8A6-C277-1E4E-AD2E-2640CF4B1497}">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <sheetData>
+    <row r="1" spans="1:3" ht="14">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="14">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="14">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="14">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF894ACD-80B4-5044-80FF-B87D40DD1943}">
   <dimension ref="A1:H4"/>
   <sheetViews>
@@ -1656,12 +1740,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57A0F55B-F18D-7B44-BBD4-71855BD07ACD}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G53" sqref="G53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -1670,7 +1754,7 @@
     <col min="3" max="3" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="28">
+    <row r="1" spans="1:7" ht="28">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -1689,8 +1773,11 @@
       <c r="F1" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="14">
+      <c r="G1" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="14">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1707,8 +1794,11 @@
       <c r="F2" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="14">
+      <c r="G2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="14">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1725,8 +1815,11 @@
       <c r="F3" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="14">
+      <c r="G3" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="14">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1744,6 +1837,9 @@
       </c>
       <c r="F4" s="1">
         <v>2</v>
+      </c>
+      <c r="G4" s="1">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
